--- a/Intentional Binding Task.xlsx
+++ b/Intentional Binding Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashi\Desktop\Lab in Psychology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C10212-883E-49A2-AD68-9F955B50B618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED715EF-E89D-4C88-89DF-3F6E89AE48E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B993E14A-88FE-4B71-8A9F-2151B65C47B9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="6">
   <si>
     <t>condition</t>
   </si>
@@ -49,13 +49,25 @@
   <si>
     <t>MEAN</t>
   </si>
+  <si>
+    <t xml:space="preserve">Mean difference between exp and unexp </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7610363-3B38-484B-A157-4454FB18AC23}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="98" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,6 +424,7 @@
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -733,7 +747,7 @@
         <v>0.33171790000051199</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -747,7 +761,7 @@
         <v>0.60858049988746599</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -761,7 +775,7 @@
         <v>0.55573629983700801</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -782,7 +796,7 @@
         <v>0.83091658651828615</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -796,7 +810,7 @@
         <v>0.53217180003412001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -810,7 +824,7 @@
         <v>0.48788839974440601</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -824,7 +838,7 @@
         <v>0.48346160002984101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -838,7 +852,7 @@
         <v>0.48089509992860202</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -852,7 +866,7 @@
         <v>0.48001759988255799</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -866,7 +880,7 @@
         <v>0.477823799941688</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -880,7 +894,7 @@
         <v>0.47611969988793101</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -894,7 +908,7 @@
         <v>0.473576599964872</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -908,7 +922,7 @@
         <v>0.47202149988151998</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -922,7 +936,7 @@
         <v>0.451877000043168</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -936,7 +950,7 @@
         <v>0.45037659979425299</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -949,8 +963,18 @@
       <c r="G31">
         <v>0.44233829993754598</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
+        <f>J19-G50</f>
+        <v>0.21740578218466644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
